--- a/biology/Médecine/Liste_des_ministres_français_chargés_de_la_Santé/Liste_des_ministres_français_chargés_de_la_Santé.xlsx
+++ b/biology/Médecine/Liste_des_ministres_français_chargés_de_la_Santé/Liste_des_ministres_français_chargés_de_la_Santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_ministres_fran%C3%A7ais_charg%C3%A9s_de_la_Sant%C3%A9</t>
+          <t>Liste_des_ministres_français_chargés_de_la_Santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cet article donne la liste des membres du gouvernement français chargés de la Santé. Ils dirigent le ministère de la Santé. Le nom exact de la fonction peut varier à chaque nomination. Les dates indiquées sont les dates de prise ou de cessation des fonctions, qui sont en général la veille de la date de publication du décret de nomination au Journal officiel.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_ministres_fran%C3%A7ais_charg%C3%A9s_de_la_Sant%C3%A9</t>
+          <t>Liste_des_ministres_français_chargés_de_la_Santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant la première guerre mondiale est créé un secrétariat d'État au service de santé militaire, rattaché au ministère de la Guerre et attribué à Justin Godart pendant toute la durée du conflit.
 En 1920 est créé le ministère de l'Hygiène, de l'Assistance et de la Prévoyance sociales, dont le premier responsable est Jules Breton. Il est renommé Ministère de la Santé publique en 1930.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_ministres_fran%C3%A7ais_charg%C3%A9s_de_la_Sant%C3%A9</t>
+          <t>Liste_des_ministres_français_chargés_de_la_Santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,6 +565,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_ministres_fran%C3%A7ais_charg%C3%A9s_de_la_Sant%C3%A9</t>
+          <t>Liste_des_ministres_français_chargés_de_la_Santé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Troisième République</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous la Troisième République, le Ministre du Travail, de l'Hygiène, de l'Assistance et Prévoyance sociales se voit aussi parfois adjoindre un sous-secrétaire d'État :
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_ministres_fran%C3%A7ais_charg%C3%A9s_de_la_Sant%C3%A9</t>
+          <t>Liste_des_ministres_français_chargés_de_la_Santé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,6 +626,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -615,7 +635,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_ministres_fran%C3%A7ais_charg%C3%A9s_de_la_Sant%C3%A9</t>
+          <t>Liste_des_ministres_français_chargés_de_la_Santé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -634,6 +654,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -641,7 +663,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_ministres_fran%C3%A7ais_charg%C3%A9s_de_la_Sant%C3%A9</t>
+          <t>Liste_des_ministres_français_chargés_de_la_Santé</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -660,6 +682,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -667,7 +691,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_ministres_fran%C3%A7ais_charg%C3%A9s_de_la_Sant%C3%A9</t>
+          <t>Liste_des_ministres_français_chargés_de_la_Santé</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -686,6 +710,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
